--- a/jac2020/app/ehrm/WorkflowTaxonomy/WorkflowTaxonomy with dates 20191009a.xlsx
+++ b/jac2020/app/ehrm/WorkflowTaxonomy/WorkflowTaxonomy with dates 20191009a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ArchitectsCompanion\jac2017\app\ehrm\WorkflowTaxonomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ArchitectsCompanion\jac2020\app\ehrm\WorkflowTaxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63CF95F9-C69D-40D8-B1B2-A06B27B8197C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7041EB69-A3EA-4FA4-AEB9-8D66F38F1311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5145,11 +5145,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E50F30-4D20-421B-A796-BE14B26046E9}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8973,5 +8975,6 @@
     <row r="1000" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>